--- a/Parcels.xlsx
+++ b/Parcels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="364">
   <si>
     <t>ALT KEY</t>
   </si>
@@ -160,6 +160,990 @@
   </si>
   <si>
     <t>$55,550</t>
+  </si>
+  <si>
+    <t>1C-K-14</t>
+  </si>
+  <si>
+    <t>12712 105TH AV
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:11 Twp:77 Rng:02SE NW EXCEPT 60' X250' NE COR</t>
+  </si>
+  <si>
+    <t>HOLST DOROTHY J</t>
+  </si>
+  <si>
+    <t>818 COLONY DR, PARK PLACE APT V-6, DAVENPORT IA 52806</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>1/22/2018</t>
+  </si>
+  <si>
+    <t>$28,470</t>
+  </si>
+  <si>
+    <t>$7,130</t>
+  </si>
+  <si>
+    <t>$35,600</t>
+  </si>
+  <si>
+    <t>1C-K-13</t>
+  </si>
+  <si>
+    <t>12740 105TH AV
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:11 Twp:77 Rng:02PT SE NW LOT 60' X250' NE COR EX RD</t>
+  </si>
+  <si>
+    <t>R - Residential</t>
+  </si>
+  <si>
+    <t>BEHRENS WILLIAM E</t>
+  </si>
+  <si>
+    <t>11642 110TH AVE, PARK PLACE APT V-6, DAVENPORT IA 52804</t>
+  </si>
+  <si>
+    <t>7/24/2019</t>
+  </si>
+  <si>
+    <t>$25,700</t>
+  </si>
+  <si>
+    <t>$12,850</t>
+  </si>
+  <si>
+    <t>$38,550</t>
+  </si>
+  <si>
+    <t>1J-C-31</t>
+  </si>
+  <si>
+    <t>26761 10TH AV
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:32 Twp:80 Rng:01NW NW</t>
+  </si>
+  <si>
+    <t>URMIE STEVEN</t>
+  </si>
+  <si>
+    <t>26761 10TH AV, PARK PLACE APT V-6, STOCKTON IA 52769</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>$74,750</t>
+  </si>
+  <si>
+    <t>$236,760</t>
+  </si>
+  <si>
+    <t>$315,410</t>
+  </si>
+  <si>
+    <t>24665 115TH AV
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:12 Twp:79 Rng:02PT SW NE 3.55AC PERSURVEY 06-19162 3.913NET AC</t>
+  </si>
+  <si>
+    <t>24665 115TH AV, PARK PLACE APT V-6, DIXON IA 52745</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>9/9/2006</t>
+  </si>
+  <si>
+    <t>$4,000</t>
+  </si>
+  <si>
+    <t>$256,370</t>
+  </si>
+  <si>
+    <t>$271,390</t>
+  </si>
+  <si>
+    <t>1P-B-74</t>
+  </si>
+  <si>
+    <t>29850 130TH AV
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:18 Twp:80 Rng:03NE NE</t>
+  </si>
+  <si>
+    <t>HAROLD HERMAN PAUSTIAN REVOC TR</t>
+  </si>
+  <si>
+    <t>19495 181ST AVE NW, PARK PLACE APT V-6, BIG LAKE MN 55309</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>10/5/2016</t>
+  </si>
+  <si>
+    <t>$53,190</t>
+  </si>
+  <si>
+    <t>$99,550</t>
+  </si>
+  <si>
+    <t>$159,050</t>
+  </si>
+  <si>
+    <t>1C-A-56</t>
+  </si>
+  <si>
+    <t>11350 130TH ST
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:01 Twp:77 Rng:02SE SW EX E 325'</t>
+  </si>
+  <si>
+    <t>PLETT RANDALL E</t>
+  </si>
+  <si>
+    <t>11350 130TH ST, PARK PLACE APT V-6, DAVENPORT IA 52804</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>4/12/2013</t>
+  </si>
+  <si>
+    <t>$36,960</t>
+  </si>
+  <si>
+    <t>$212,730</t>
+  </si>
+  <si>
+    <t>$252,210</t>
+  </si>
+  <si>
+    <t>6140 135TH ST
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>REVELLE'S 2ND SUBD Lot: 001 REVELLE'S 2ND SUBDOUTLOT 1 &amp; LOT 1</t>
+  </si>
+  <si>
+    <t>JACKSON BONNIE E</t>
+  </si>
+  <si>
+    <t>1056 15TH AVE S, PARK PLACE APT V-6, CLINTON IA 52732</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>5/15/1990</t>
+  </si>
+  <si>
+    <t>$22,000.00</t>
+  </si>
+  <si>
+    <t>$6,930</t>
+  </si>
+  <si>
+    <t>$95,240</t>
+  </si>
+  <si>
+    <t>$102,850</t>
+  </si>
+  <si>
+    <t>10525 140TH ST
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>IWA 5TH SUBD Lot: 001 IWA 5TH SUBD LOT 1 &amp;OUTLOT A</t>
+  </si>
+  <si>
+    <t>GROHARING TODD</t>
+  </si>
+  <si>
+    <t>10525 140TH ST, PARK PLACE APT V-6, DAVENPORT IA 52804</t>
+  </si>
+  <si>
+    <t>1890</t>
+  </si>
+  <si>
+    <t>$25,720</t>
+  </si>
+  <si>
+    <t>$164,230</t>
+  </si>
+  <si>
+    <t>$194,480</t>
+  </si>
+  <si>
+    <t>11325 140TH ST LOT 124
+DAVENPORT IA 52804</t>
+  </si>
+  <si>
+    <t>HARMONY HOMES:2019: Title #82AI60637:Park: 15 - LAKESIDE MANOR Lot 12482AI60537 2019 HARMONY HOMESFMT430IN1813731A15 LAKESIDE MANOR LOT 124</t>
+  </si>
+  <si>
+    <t>YES HOMESALES EXP LLC</t>
+  </si>
+  <si>
+    <t>5050 S SYRACUSE ST STE 1200, PARK PLACE APT V-6, DENVER CO 80237</t>
+  </si>
+  <si>
+    <t>11325 140TH ST LOT 155
+DAVENPORT IA 55280</t>
+  </si>
+  <si>
+    <t>HARMONY HOMES:2019: Title #82AI60576:Park: 15 - LAKESIDE MANOR Lot 15582AI60576 2019 HARMONY HOMESFMT430IN1813614A15 LAKESIDE MANOR LOT 155</t>
+  </si>
+  <si>
+    <t>1P-D-44</t>
+  </si>
+  <si>
+    <t>27380 150TH AV
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:28 Twp:80 Rng:03PT NE SE COM NE CORSE: W 80 RDS-S 44RDS-E 80 RDS-N 44RDS- TO BEG. EX NE 2.25A &amp; SD.</t>
+  </si>
+  <si>
+    <t>27380 150TH AV, PARK PLACE APT V-6, LONG GROVE IA 52756</t>
+  </si>
+  <si>
+    <t>9/20/2006</t>
+  </si>
+  <si>
+    <t>$21,310</t>
+  </si>
+  <si>
+    <t>$163,820</t>
+  </si>
+  <si>
+    <t>$185,730</t>
+  </si>
+  <si>
+    <t>1N-A-49</t>
+  </si>
+  <si>
+    <t>24760 155TH AV
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:10 Twp:79 Rng:03NE NW</t>
+  </si>
+  <si>
+    <t>VOLLBEER INC</t>
+  </si>
+  <si>
+    <t>25421 162ND AV, PARK PLACE APT V-6, ELDRIDGE IA 52748</t>
+  </si>
+  <si>
+    <t>2-Fam Conversion</t>
+  </si>
+  <si>
+    <t>$74,600</t>
+  </si>
+  <si>
+    <t>$85,560</t>
+  </si>
+  <si>
+    <t>$188,090</t>
+  </si>
+  <si>
+    <t>9359 160TH ST
+SCOTT COUNTY</t>
+  </si>
+  <si>
+    <t>Sec:27 Twp:78 Rng:02NE NW</t>
+  </si>
+  <si>
+    <t>OWENS BRADLEY J</t>
+  </si>
+  <si>
+    <t>9359 160TH ST, PARK PLACE APT V-6, DAVENPORT IA 52804-8806</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>$64,670</t>
+  </si>
+  <si>
+    <t>$340,940</t>
+  </si>
+  <si>
+    <t>$405,610</t>
+  </si>
+  <si>
+    <t>1P-C-40</t>
+  </si>
+  <si>
+    <t>28755 162ND AV
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:23 Twp:80 Rng:03NW NW</t>
+  </si>
+  <si>
+    <t>SEGHERS BEVERLY A</t>
+  </si>
+  <si>
+    <t>PO BOX 260, PARK PLACE APT V-6, DE WITT IA 52742-0260</t>
+  </si>
+  <si>
+    <t>$70,160</t>
+  </si>
+  <si>
+    <t>$99,380</t>
+  </si>
+  <si>
+    <t>$182,170</t>
+  </si>
+  <si>
+    <t>1B-B-02</t>
+  </si>
+  <si>
+    <t>7870 165TH ST
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:20 Twp:78 Rng:02PT SE NE COM 800' W&amp; 215' N OF SE CORNE 1/4 SEC: N 180'-E250'-S 180'-W 250' TO BEG.</t>
+  </si>
+  <si>
+    <t>PO BOX 260, PARK PLACE APT V-6, BLUE GRASS IA 52726</t>
+  </si>
+  <si>
+    <t>1958</t>
+  </si>
+  <si>
+    <t>12/18/2012</t>
+  </si>
+  <si>
+    <t>$1,340</t>
+  </si>
+  <si>
+    <t>$156,030</t>
+  </si>
+  <si>
+    <t>$157,370</t>
+  </si>
+  <si>
+    <t>1B-B-05</t>
+  </si>
+  <si>
+    <t>8659 170TH ST
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:21 Twp:78 Rng:02NW NE</t>
+  </si>
+  <si>
+    <t>DANIEL J URMIE REVOC TRUST</t>
+  </si>
+  <si>
+    <t>29499 150TH AV, PARK PLACE APT V-6, LONG GROVE IA 52756</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>2/19/2019</t>
+  </si>
+  <si>
+    <t>$49,580</t>
+  </si>
+  <si>
+    <t>$75,710</t>
+  </si>
+  <si>
+    <t>$133,480</t>
+  </si>
+  <si>
+    <t>1L-A-17</t>
+  </si>
+  <si>
+    <t>25804 190TH AV
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:06 Twp:79 Rng:04PT NE NE COM 895.9'SNE COR NE NE: S216.31'-W 365'-N216.31'-E 365 TO BEG 1.81AC SURVEY 25823-95</t>
+  </si>
+  <si>
+    <t>JAMES R DEXTER TRUST</t>
+  </si>
+  <si>
+    <t>18677 270TH ST, PARK PLACE APT V-6, ELDRIDGE IA 52748</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1/22/2006</t>
+  </si>
+  <si>
+    <t>$159,000.00</t>
+  </si>
+  <si>
+    <t>$1,850</t>
+  </si>
+  <si>
+    <t>$206,550</t>
+  </si>
+  <si>
+    <t>$213,600</t>
+  </si>
+  <si>
+    <t>1B-A-29</t>
+  </si>
+  <si>
+    <t>9365 190TH ST
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:10 Twp:78 Rng:02PT NW NW &amp; PT NE NW N OF R.R. 8.737 AC PER SURVEY 2018-51637</t>
+  </si>
+  <si>
+    <t>9365 190TH ST, PARK PLACE APT V-6, DAVENPORT IA 52804</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>12/3/2018</t>
+  </si>
+  <si>
+    <t>$432,305.00</t>
+  </si>
+  <si>
+    <t>$15,650</t>
+  </si>
+  <si>
+    <t>$183,990</t>
+  </si>
+  <si>
+    <t>$202,940</t>
+  </si>
+  <si>
+    <t>1L-A-06</t>
+  </si>
+  <si>
+    <t>25039 200TH AV
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:04 Twp:79 Rng:04SW SW</t>
+  </si>
+  <si>
+    <t>DONALD M CLAUSSEN REVOC TRUST</t>
+  </si>
+  <si>
+    <t>609 W MAIN ST, PARK PLACE APT V-6, LONG GROVE IA 52756</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>$69,320</t>
+  </si>
+  <si>
+    <t>$80,080</t>
+  </si>
+  <si>
+    <t>$153,830</t>
+  </si>
+  <si>
+    <t>1D-B-47</t>
+  </si>
+  <si>
+    <t>29667 200TH AV
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:16 Twp:80 Rng:04SW NW</t>
+  </si>
+  <si>
+    <t>MARTZAHN LESTER L</t>
+  </si>
+  <si>
+    <t>29667 200TH AV, PARK PLACE APT V-6, LONG GROVE IA 52756</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>$39,290</t>
+  </si>
+  <si>
+    <t>$172,170</t>
+  </si>
+  <si>
+    <t>$216,840</t>
+  </si>
+  <si>
+    <t>10310 200TH ST
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:35 Twp:79 Rng:2PT SW 1/4COM SE SW COR TH W675.39' TO POB; W510' -N 495' -E 510' -495' TO POB EX 60' RD EASEMENT 5.80 AC 5.10 NET PER SURVEY 08-4161</t>
+  </si>
+  <si>
+    <t>10310 200TH ST, PARK PLACE APT V-6, DAVENPORT IA 52804</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>10/26/2011</t>
+  </si>
+  <si>
+    <t>$200,000.00</t>
+  </si>
+  <si>
+    <t>$6,470</t>
+  </si>
+  <si>
+    <t>$179,510</t>
+  </si>
+  <si>
+    <t>$195,840</t>
+  </si>
+  <si>
+    <t>1B-A-02</t>
+  </si>
+  <si>
+    <t>10485 200TH ST
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:02 Twp:78 Rng:02NE NW</t>
+  </si>
+  <si>
+    <t>SCHNECKLOTH JAMES D</t>
+  </si>
+  <si>
+    <t>10485 200TH ST, PARK PLACE APT V-6, DAVENPORT IA 52804</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>$77,700</t>
+  </si>
+  <si>
+    <t>$304,470</t>
+  </si>
+  <si>
+    <t>$387,920</t>
+  </si>
+  <si>
+    <t>23469 20TH AV
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:16 Twp:79 Rng:01NW SW EX 4.977ASURVEY 5609-02</t>
+  </si>
+  <si>
+    <t>SCHMIDT LORA</t>
+  </si>
+  <si>
+    <t>23469 20TH AV, PARK PLACE APT V-6, STOCKTON IA 52769-9680</t>
+  </si>
+  <si>
+    <t>$64,890</t>
+  </si>
+  <si>
+    <t>$319,490</t>
+  </si>
+  <si>
+    <t>$384,380</t>
+  </si>
+  <si>
+    <t>1G-C-26</t>
+  </si>
+  <si>
+    <t>8200 210TH ST
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:28 Twp:79 Rng:02PT S 1/2 SW W 22.85CHS EX 1A LOT</t>
+  </si>
+  <si>
+    <t>CASSIDY NELDA E</t>
+  </si>
+  <si>
+    <t>8200 210TH ST, PARK PLACE APT V-6, WALCOTT IA 52773</t>
+  </si>
+  <si>
+    <t>11/22/2017</t>
+  </si>
+  <si>
+    <t>$82,060</t>
+  </si>
+  <si>
+    <t>$116,510</t>
+  </si>
+  <si>
+    <t>$201,300</t>
+  </si>
+  <si>
+    <t>1L-C-25</t>
+  </si>
+  <si>
+    <t>22170 220TH ST
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:23 Twp:79 Rng:04SW SW</t>
+  </si>
+  <si>
+    <t>CHARLES W DRENTER TRUST</t>
+  </si>
+  <si>
+    <t>22170 220TH ST, PARK PLACE APT V-6, DAVENPORT IA 52804</t>
+  </si>
+  <si>
+    <t>3/1/2009</t>
+  </si>
+  <si>
+    <t>$69,500</t>
+  </si>
+  <si>
+    <t>$160,120</t>
+  </si>
+  <si>
+    <t>$229,620</t>
+  </si>
+  <si>
+    <t>1H-B-18</t>
+  </si>
+  <si>
+    <t>23580 220TH ST
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:24 Twp:79 Rng:04S 1/2 SE S OF RD EXE 18 RDS</t>
+  </si>
+  <si>
+    <t>JOHNSON JAMES L</t>
+  </si>
+  <si>
+    <t>23580 220TH ST, PARK PLACE APT V-6, DAVENPORT IA 52804</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>$23,860</t>
+  </si>
+  <si>
+    <t>$173,550</t>
+  </si>
+  <si>
+    <t>$201,350</t>
+  </si>
+  <si>
+    <t>1H-B-75</t>
+  </si>
+  <si>
+    <t>26278 225TH ST
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:21 Twp:79 Rng:05SE NW</t>
+  </si>
+  <si>
+    <t>KRAFT JAMES L</t>
+  </si>
+  <si>
+    <t>22105 283RD AVE, PARK PLACE APT V-6, LECLAIRE IA 52753</t>
+  </si>
+  <si>
+    <t>$31,510</t>
+  </si>
+  <si>
+    <t>$27,060</t>
+  </si>
+  <si>
+    <t>$60,740</t>
+  </si>
+  <si>
+    <t>1H-L-34</t>
+  </si>
+  <si>
+    <t>21460 235TH AV
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:25 Twp:79 Rng:04N 295.2' E 295.2' NESW</t>
+  </si>
+  <si>
+    <t>HOLST MOLLY J</t>
+  </si>
+  <si>
+    <t>21460 235TH AV, PARK PLACE APT V-6, LECLAIRE IA 52753</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>8/29/1997</t>
+  </si>
+  <si>
+    <t>$2,620</t>
+  </si>
+  <si>
+    <t>$149,740</t>
+  </si>
+  <si>
+    <t>$152,600</t>
+  </si>
+  <si>
+    <t>1H-A-54</t>
+  </si>
+  <si>
+    <t>27630 235TH ST
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:15 Twp:79 Rng:05SW NE</t>
+  </si>
+  <si>
+    <t>KATHRYN A HALL TRUST</t>
+  </si>
+  <si>
+    <t>27630 235TH ST, PARK PLACE APT V-6, LE CLAIRE IA 52753</t>
+  </si>
+  <si>
+    <t>$42,600</t>
+  </si>
+  <si>
+    <t>$127,480</t>
+  </si>
+  <si>
+    <t>$177,590</t>
+  </si>
+  <si>
+    <t>609 23RD ST
+BETTENDORF IA 52722</t>
+  </si>
+  <si>
+    <t>BETTENDORF PARK Lot: 004 BETTENDORF PARKANNEX</t>
+  </si>
+  <si>
+    <t>SCHULZ GERALD D</t>
+  </si>
+  <si>
+    <t>316 RAINBOW DR, PARK PLACE APT V-6, DOUBLE SPRINGS AL 35553</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>2/6/2014</t>
+  </si>
+  <si>
+    <t>$75,000.00</t>
+  </si>
+  <si>
+    <t>$21,200</t>
+  </si>
+  <si>
+    <t>$61,630</t>
+  </si>
+  <si>
+    <t>$82,830</t>
+  </si>
+  <si>
+    <t>2135 23RD ST
+BETTENDORF IA 52722</t>
+  </si>
+  <si>
+    <t>FRASER'S SUBD Lot: 003 FRASER'S SUBD N153.8' W 197.2' EXSE CORNER</t>
+  </si>
+  <si>
+    <t>GOOD LEE</t>
+  </si>
+  <si>
+    <t>2135 23RD ST, PARK PLACE APT V-6, BETTENDORF IA 52722</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>7/29/2019</t>
+  </si>
+  <si>
+    <t>$64,540</t>
+  </si>
+  <si>
+    <t>$215,670</t>
+  </si>
+  <si>
+    <t>$280,210</t>
+  </si>
+  <si>
+    <t>20012 240TH ST
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:09 Twp:79 Rng:04PART NW SW &amp; SW SWPER DOC#06-31018 ASSHOWN ON SURVEY06-25193 40AC 37.88 NET</t>
+  </si>
+  <si>
+    <t>20012 240TH ST, PARK PLACE APT V-6, ELDRIDGE IA 52748</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>9/27/2006</t>
+  </si>
+  <si>
+    <t>$445,000.00</t>
+  </si>
+  <si>
+    <t>$67,960</t>
+  </si>
+  <si>
+    <t>$303,570</t>
+  </si>
+  <si>
+    <t>$378,890</t>
+  </si>
+  <si>
+    <t>1K-L-10</t>
+  </si>
+  <si>
+    <t>17555 246TH AV
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>LEAMER'S RETREAT Lot: 010 LEAMER'S RETREAT</t>
+  </si>
+  <si>
+    <t>DMG LLC</t>
+  </si>
+  <si>
+    <t>2330 W 73RD ST, PARK PLACE APT V-6, DAVENPORT IA 52806</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>10/23/2019</t>
+  </si>
+  <si>
+    <t>$45,000</t>
+  </si>
+  <si>
+    <t>$77,100</t>
+  </si>
+  <si>
+    <t>$122,100</t>
+  </si>
+  <si>
+    <t>18810 250TH ST
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:06 Twp:79 Rng:04SE SE EX S 220' E198' PER SURVEY31303-99</t>
+  </si>
+  <si>
+    <t>NORMIN FARM LLC</t>
+  </si>
+  <si>
+    <t>25010 190TH AVE, PARK PLACE APT V-6, ELDRIDGE IA 52748</t>
+  </si>
+  <si>
+    <t>1922</t>
+  </si>
+  <si>
+    <t>10/6/2017</t>
+  </si>
+  <si>
+    <t>$74,300</t>
+  </si>
+  <si>
+    <t>$145,850</t>
+  </si>
+  <si>
+    <t>$226,010</t>
+  </si>
+  <si>
+    <t>1H-A-81</t>
+  </si>
+  <si>
+    <t>23195 255TH AV
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:17 Twp:79 Rng:05SW SE</t>
+  </si>
+  <si>
+    <t>BENSON GRAIN INC</t>
+  </si>
+  <si>
+    <t>23195 255TH AVE, PARK PLACE APT V-6, LE CLAIRE IA 52753</t>
+  </si>
+  <si>
+    <t>6/17/2011</t>
+  </si>
+  <si>
+    <t>$900,200.00</t>
+  </si>
+  <si>
+    <t>$57,000</t>
+  </si>
+  <si>
+    <t>$87,860</t>
+  </si>
+  <si>
+    <t>$153,840</t>
+  </si>
+  <si>
+    <t>1H-L-7A</t>
+  </si>
+  <si>
+    <t>21955 257TH AV
+SCOTT COUNTY IA 0</t>
+  </si>
+  <si>
+    <t>Sec:29 Twp:79 Rng:05PT NE NE COM412.34'S &amp; 1334'W NECOR NE NE: E221'-S1D07'W 197.14'-W 221'-N1D07'E 197.14' TO BEG 1.00AC .85NET</t>
+  </si>
+  <si>
+    <t>BENSON PAUL D</t>
+  </si>
+  <si>
+    <t>21955 257TH AVE, PARK PLACE APT V-6, LE CLAIRE IA 52753</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>$1,000</t>
+  </si>
+  <si>
+    <t>$245,040</t>
+  </si>
+  <si>
+    <t>$246,040</t>
   </si>
 </sst>
 </file>
@@ -491,7 +1475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,6 +1677,1332 @@
         <v>47</v>
       </c>
     </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="B18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>186</v>
+      </c>
+      <c r="I22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" t="s">
+        <v>189</v>
+      </c>
+      <c r="L22" t="s">
+        <v>190</v>
+      </c>
+      <c r="M22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I23" t="s">
+        <v>197</v>
+      </c>
+      <c r="J23" t="s">
+        <v>198</v>
+      </c>
+      <c r="K23" t="s">
+        <v>199</v>
+      </c>
+      <c r="L23" t="s">
+        <v>200</v>
+      </c>
+      <c r="M23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>205</v>
+      </c>
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" t="s">
+        <v>208</v>
+      </c>
+      <c r="L24" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s">
+        <v>216</v>
+      </c>
+      <c r="K25" t="s">
+        <v>217</v>
+      </c>
+      <c r="L25" t="s">
+        <v>218</v>
+      </c>
+      <c r="M25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" t="s">
+        <v>223</v>
+      </c>
+      <c r="I26" t="s">
+        <v>224</v>
+      </c>
+      <c r="J26" t="s">
+        <v>225</v>
+      </c>
+      <c r="K26" t="s">
+        <v>226</v>
+      </c>
+      <c r="L26" t="s">
+        <v>227</v>
+      </c>
+      <c r="M26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>232</v>
+      </c>
+      <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" t="s">
+        <v>234</v>
+      </c>
+      <c r="K27" t="s">
+        <v>235</v>
+      </c>
+      <c r="L27" t="s">
+        <v>236</v>
+      </c>
+      <c r="M27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="B28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" t="s">
+        <v>239</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>240</v>
+      </c>
+      <c r="F28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" t="s">
+        <v>242</v>
+      </c>
+      <c r="L28" t="s">
+        <v>243</v>
+      </c>
+      <c r="M28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>245</v>
+      </c>
+      <c r="B29" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" t="s">
+        <v>247</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>248</v>
+      </c>
+      <c r="F29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" t="s">
+        <v>251</v>
+      </c>
+      <c r="L29" t="s">
+        <v>252</v>
+      </c>
+      <c r="M29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" t="s">
+        <v>216</v>
+      </c>
+      <c r="I30" t="s">
+        <v>259</v>
+      </c>
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" t="s">
+        <v>260</v>
+      </c>
+      <c r="L30" t="s">
+        <v>261</v>
+      </c>
+      <c r="M30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" t="s">
+        <v>264</v>
+      </c>
+      <c r="C31" t="s">
+        <v>265</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>266</v>
+      </c>
+      <c r="F31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" t="s">
+        <v>268</v>
+      </c>
+      <c r="K31" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s">
+        <v>270</v>
+      </c>
+      <c r="M31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>272</v>
+      </c>
+      <c r="B32" t="s">
+        <v>273</v>
+      </c>
+      <c r="C32" t="s">
+        <v>274</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>275</v>
+      </c>
+      <c r="F32" t="s">
+        <v>276</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32" t="s">
+        <v>277</v>
+      </c>
+      <c r="L32" t="s">
+        <v>278</v>
+      </c>
+      <c r="M32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33" t="s">
+        <v>281</v>
+      </c>
+      <c r="C33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>283</v>
+      </c>
+      <c r="F33" t="s">
+        <v>284</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" t="s">
+        <v>285</v>
+      </c>
+      <c r="I33" t="s">
+        <v>286</v>
+      </c>
+      <c r="J33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" t="s">
+        <v>287</v>
+      </c>
+      <c r="L33" t="s">
+        <v>288</v>
+      </c>
+      <c r="M33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>290</v>
+      </c>
+      <c r="B34" t="s">
+        <v>291</v>
+      </c>
+      <c r="C34" t="s">
+        <v>292</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>293</v>
+      </c>
+      <c r="F34" t="s">
+        <v>294</v>
+      </c>
+      <c r="G34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" t="s">
+        <v>53</v>
+      </c>
+      <c r="K34" t="s">
+        <v>295</v>
+      </c>
+      <c r="L34" t="s">
+        <v>296</v>
+      </c>
+      <c r="M34" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="B35" t="s">
+        <v>298</v>
+      </c>
+      <c r="C35" t="s">
+        <v>299</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>300</v>
+      </c>
+      <c r="F35" t="s">
+        <v>301</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s">
+        <v>302</v>
+      </c>
+      <c r="I35" t="s">
+        <v>303</v>
+      </c>
+      <c r="J35" t="s">
+        <v>304</v>
+      </c>
+      <c r="K35" t="s">
+        <v>305</v>
+      </c>
+      <c r="L35" t="s">
+        <v>306</v>
+      </c>
+      <c r="M35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="B36" t="s">
+        <v>308</v>
+      </c>
+      <c r="C36" t="s">
+        <v>309</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" t="s">
+        <v>310</v>
+      </c>
+      <c r="F36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" t="s">
+        <v>312</v>
+      </c>
+      <c r="I36" t="s">
+        <v>313</v>
+      </c>
+      <c r="J36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" t="s">
+        <v>314</v>
+      </c>
+      <c r="L36" t="s">
+        <v>315</v>
+      </c>
+      <c r="M36" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="B37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C37" t="s">
+        <v>318</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" t="s">
+        <v>319</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" t="s">
+        <v>320</v>
+      </c>
+      <c r="I37" t="s">
+        <v>321</v>
+      </c>
+      <c r="J37" t="s">
+        <v>322</v>
+      </c>
+      <c r="K37" t="s">
+        <v>323</v>
+      </c>
+      <c r="L37" t="s">
+        <v>324</v>
+      </c>
+      <c r="M37" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>326</v>
+      </c>
+      <c r="B38" t="s">
+        <v>327</v>
+      </c>
+      <c r="C38" t="s">
+        <v>328</v>
+      </c>
+      <c r="D38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" t="s">
+        <v>329</v>
+      </c>
+      <c r="F38" t="s">
+        <v>330</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" t="s">
+        <v>331</v>
+      </c>
+      <c r="I38" t="s">
+        <v>332</v>
+      </c>
+      <c r="J38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" t="s">
+        <v>333</v>
+      </c>
+      <c r="L38" t="s">
+        <v>334</v>
+      </c>
+      <c r="M38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="B39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C39" t="s">
+        <v>337</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
+        <v>338</v>
+      </c>
+      <c r="F39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" t="s">
+        <v>340</v>
+      </c>
+      <c r="I39" t="s">
+        <v>341</v>
+      </c>
+      <c r="J39" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" t="s">
+        <v>342</v>
+      </c>
+      <c r="L39" t="s">
+        <v>343</v>
+      </c>
+      <c r="M39" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" t="s">
+        <v>346</v>
+      </c>
+      <c r="C40" t="s">
+        <v>347</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>348</v>
+      </c>
+      <c r="F40" t="s">
+        <v>349</v>
+      </c>
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" t="s">
+        <v>350</v>
+      </c>
+      <c r="J40" t="s">
+        <v>351</v>
+      </c>
+      <c r="K40" t="s">
+        <v>352</v>
+      </c>
+      <c r="L40" t="s">
+        <v>353</v>
+      </c>
+      <c r="M40" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>355</v>
+      </c>
+      <c r="B41" t="s">
+        <v>356</v>
+      </c>
+      <c r="C41" t="s">
+        <v>357</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>358</v>
+      </c>
+      <c r="F41" t="s">
+        <v>359</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" t="s">
+        <v>360</v>
+      </c>
+      <c r="K41" t="s">
+        <v>361</v>
+      </c>
+      <c r="L41" t="s">
+        <v>362</v>
+      </c>
+      <c r="M41" t="s">
+        <v>363</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
